--- a/能力提升任务进展汇总表.xlsx
+++ b/能力提升任务进展汇总表.xlsx
@@ -601,7 +601,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
